--- a/widget_measurement_converter.xlsx
+++ b/widget_measurement_converter.xlsx
@@ -114,7 +114,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -140,13 +140,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -157,11 +166,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="166" fontId="3" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
+      <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -469,13 +482,13 @@
   <dimension ref="B2:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="6" width="10.7109375" customWidth="1"/>
-    <col min="7" max="7" width="58.85546875" customWidth="1"/>
+    <col min="7" max="7" width="73.7109375" customWidth="1"/>
     <col min="8" max="9" width="10.7109375" customWidth="1"/>
     <col min="10" max="10" width="25.140625" customWidth="1"/>
   </cols>
@@ -540,9 +553,9 @@
       <c r="F7" s="3">
         <v>126</v>
       </c>
-      <c r="G7" s="4" t="str">
-        <f>CONCATENATE("new Vector4(", ROUND(C7/$C$2,$C$4), "f, ", ROUND(D7/$C$3,$C$4), "f, ", ROUND(F7/$C$3,$C$4), "f, ", ROUND(E7/$C$2,$C$4), "f)")</f>
-        <v>new Vector4(0.02853f, 0.04743f, 0.24901f, 0.94423f)</v>
+      <c r="G7" s="5" t="str">
+        <f>IF(COUNTBLANK(B7:F7)&gt;0,"",CONCATENATE(B7,".Bounds = new Vector4(", ROUND(C7/$C$2,$C$4), "f, ", ROUND(D7/$C$3,$C$4), "f, ", ROUND(F7/$C$3,$C$4), "f, ", ROUND(E7/$C$2,$C$4), "f);"))</f>
+        <v>title.Bounds = new Vector4(0.02853f, 0.04743f, 0.24901f, 0.94423f);</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
@@ -561,9 +574,9 @@
       <c r="F8" s="3">
         <v>40</v>
       </c>
-      <c r="G8" s="5" t="str">
-        <f t="shared" ref="G8:G31" si="0">CONCATENATE("new Vector4(", ROUND(C8/$C$2,$C$4), "f, ", ROUND(D8/$C$3,$C$4), "f, ", ROUND(F8/$C$3,$C$4), "f, ", ROUND(E8/$C$2,$C$4), "f)")</f>
-        <v>new Vector4(0.02853f, 0.32016f, 0.07905f, 0.2594f)</v>
+      <c r="G8" s="6" t="str">
+        <f>IF(COUNTBLANK(B8:F8)&gt;0,"",CONCATENATE(B8,".Bounds = new Vector4(", ROUND(C8/$C$2,$C$4), "f, ", ROUND(D8/$C$3,$C$4), "f, ", ROUND(F8/$C$3,$C$4), "f, ", ROUND(E8/$C$2,$C$4), "f);"))</f>
+        <v>new.Bounds = new Vector4(0.02853f, 0.32016f, 0.07905f, 0.2594f);</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
@@ -582,9 +595,9 @@
       <c r="F9" s="3">
         <v>40</v>
       </c>
-      <c r="G9" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>new Vector4(0.06226f, 0.42688f, 0.07905f, 0.2594f)</v>
+      <c r="G9" s="6" t="str">
+        <f t="shared" ref="G9:G30" si="0">IF(COUNTBLANK(B9:F9)&gt;0,"",CONCATENATE(B9,".Bounds = new Vector4(", ROUND(C9/$C$2,$C$4), "f, ", ROUND(D9/$C$3,$C$4), "f, ", ROUND(F9/$C$3,$C$4), "f, ", ROUND(E9/$C$2,$C$4), "f);"))</f>
+        <v>load.Bounds = new Vector4(0.06226f, 0.42688f, 0.07905f, 0.2594f);</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
@@ -603,9 +616,9 @@
       <c r="F10" s="3">
         <v>40</v>
       </c>
-      <c r="G10" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>new Vector4(0.09598f, 0.53162f, 0.07905f, 0.2594f)</v>
+      <c r="G10" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>settings.Bounds = new Vector4(0.09598f, 0.53162f, 0.07905f, 0.2594f);</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
@@ -624,9 +637,9 @@
       <c r="F11" s="3">
         <v>40</v>
       </c>
-      <c r="G11" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>new Vector4(0.131f, 0.63834f, 0.07905f, 0.2594f)</v>
+      <c r="G11" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>exit.Bounds = new Vector4(0.131f, 0.63834f, 0.07905f, 0.2594f);</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
@@ -645,123 +658,128 @@
       <c r="F12" s="3">
         <v>323</v>
       </c>
-      <c r="G12" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>new Vector4(0.44099f, 0.32016f, 0.63834f, 0.53178f)</v>
+      <c r="G12" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>news.Bounds = new Vector4(0.44099f, 0.32016f, 0.63834f, 0.53178f);</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="G13" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>new Vector4(0f, 0f, 0f, 0f)</v>
+      <c r="G13" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="G14" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>new Vector4(0f, 0f, 0f, 0f)</v>
+      <c r="G14" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="G15" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>new Vector4(0f, 0f, 0f, 0f)</v>
+      <c r="G15" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="G16" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>new Vector4(0f, 0f, 0f, 0f)</v>
-      </c>
-    </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G17" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>new Vector4(0f, 0f, 0f, 0f)</v>
-      </c>
-    </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G18" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>new Vector4(0f, 0f, 0f, 0f)</v>
-      </c>
-    </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G19" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>new Vector4(0f, 0f, 0f, 0f)</v>
-      </c>
-    </row>
-    <row r="20" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G20" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>new Vector4(0f, 0f, 0f, 0f)</v>
-      </c>
-    </row>
-    <row r="21" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G21" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>new Vector4(0f, 0f, 0f, 0f)</v>
-      </c>
-    </row>
-    <row r="22" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G22" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>new Vector4(0f, 0f, 0f, 0f)</v>
-      </c>
-    </row>
-    <row r="23" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G23" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>new Vector4(0f, 0f, 0f, 0f)</v>
-      </c>
-    </row>
-    <row r="24" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G24" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>new Vector4(0f, 0f, 0f, 0f)</v>
-      </c>
-    </row>
-    <row r="25" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G25" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>new Vector4(0f, 0f, 0f, 0f)</v>
-      </c>
-    </row>
-    <row r="26" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G26" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>new Vector4(0f, 0f, 0f, 0f)</v>
-      </c>
-    </row>
-    <row r="27" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G27" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>new Vector4(0f, 0f, 0f, 0f)</v>
-      </c>
-    </row>
-    <row r="28" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G28" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>new Vector4(0f, 0f, 0f, 0f)</v>
-      </c>
-    </row>
-    <row r="29" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G29" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>new Vector4(0f, 0f, 0f, 0f)</v>
-      </c>
-    </row>
-    <row r="30" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G30" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>new Vector4(0f, 0f, 0f, 0f)</v>
-      </c>
-    </row>
-    <row r="31" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G31" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>new Vector4(0f, 0f, 0f, 0f)</v>
+      <c r="G16" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G17" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G18" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G19" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G20" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G21" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G22" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G23" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G24" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G25" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G26" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G27" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G28" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G29" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G30" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="7" t="str">
+        <f>IF(COUNTBLANK(B31:F31)&gt;0,"",CONCATENATE(B31,".Bounds = new Vector4(", ROUND(C31/$C$2,$C$4), "f, ", ROUND(D31/$C$3,$C$4), "f, ", ROUND(F31/$C$3,$C$4), "f, ", ROUND(E31/$C$2,$C$4), "f);"))</f>
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/widget_measurement_converter.xlsx
+++ b/widget_measurement_converter.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>item</t>
   </si>
@@ -30,21 +30,12 @@
     <t>title</t>
   </si>
   <si>
-    <t>new</t>
-  </si>
-  <si>
     <t>settings</t>
   </si>
   <si>
     <t>exit</t>
   </si>
   <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>load</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
@@ -61,6 +52,18 @@
   </si>
   <si>
     <t>accuracy</t>
+  </si>
+  <si>
+    <t>single_player</t>
+  </si>
+  <si>
+    <t>multiplayer</t>
+  </si>
+  <si>
+    <t>leaderboards</t>
+  </si>
+  <si>
+    <t>newsContainer</t>
   </si>
 </sst>
 </file>
@@ -68,7 +71,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -167,13 +170,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
@@ -482,12 +485,13 @@
   <dimension ref="B2:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="6" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="3" max="6" width="10.7109375" customWidth="1"/>
     <col min="7" max="7" width="73.7109375" customWidth="1"/>
     <col min="8" max="9" width="10.7109375" customWidth="1"/>
     <col min="10" max="10" width="25.140625" customWidth="1"/>
@@ -495,26 +499,26 @@
   <sheetData>
     <row r="2" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C2" s="3">
-        <v>771</v>
+        <v>800</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C3" s="3">
-        <v>506</v>
+        <v>600</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C4" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -522,10 +526,10 @@
         <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>1</v>
@@ -534,7 +538,7 @@
         <v>2</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
@@ -542,31 +546,31 @@
         <v>3</v>
       </c>
       <c r="C7" s="3">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D7" s="3">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E7" s="3">
-        <v>728</v>
+        <v>768</v>
       </c>
       <c r="F7" s="3">
         <v>126</v>
       </c>
       <c r="G7" s="5" t="str">
         <f>IF(COUNTBLANK(B7:F7)&gt;0,"",CONCATENATE(B7,".Bounds = new Vector4(", ROUND(C7/$C$2,$C$4), "f, ", ROUND(D7/$C$3,$C$4), "f, ", ROUND(F7/$C$3,$C$4), "f, ", ROUND(E7/$C$2,$C$4), "f);"))</f>
-        <v>title.Bounds = new Vector4(0.02853f, 0.04743f, 0.24901f, 0.94423f);</v>
+        <v>title.Bounds = new Vector4(0.02125f, 0.03f, 0.21f, 0.96f);</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C8" s="3">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D8" s="3">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E8" s="3">
         <v>200</v>
@@ -576,18 +580,18 @@
       </c>
       <c r="G8" s="6" t="str">
         <f>IF(COUNTBLANK(B8:F8)&gt;0,"",CONCATENATE(B8,".Bounds = new Vector4(", ROUND(C8/$C$2,$C$4), "f, ", ROUND(D8/$C$3,$C$4), "f, ", ROUND(F8/$C$3,$C$4), "f, ", ROUND(E8/$C$2,$C$4), "f);"))</f>
-        <v>new.Bounds = new Vector4(0.02853f, 0.32016f, 0.07905f, 0.2594f);</v>
+        <v>single_player.Bounds = new Vector4(0.02125f, 0.265f, 0.066667f, 0.25f);</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C9" s="3">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="D9" s="3">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E9" s="3">
         <v>200</v>
@@ -597,18 +601,18 @@
       </c>
       <c r="G9" s="6" t="str">
         <f t="shared" ref="G9:G30" si="0">IF(COUNTBLANK(B9:F9)&gt;0,"",CONCATENATE(B9,".Bounds = new Vector4(", ROUND(C9/$C$2,$C$4), "f, ", ROUND(D9/$C$3,$C$4), "f, ", ROUND(F9/$C$3,$C$4), "f, ", ROUND(E9/$C$2,$C$4), "f);"))</f>
-        <v>load.Bounds = new Vector4(0.06226f, 0.42688f, 0.07905f, 0.2594f);</v>
+        <v>multiplayer.Bounds = new Vector4(0.02125f, 0.355f, 0.066667f, 0.25f);</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" s="3">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="D10" s="3">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E10" s="3">
         <v>200</v>
@@ -618,18 +622,18 @@
       </c>
       <c r="G10" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>settings.Bounds = new Vector4(0.09598f, 0.53162f, 0.07905f, 0.2594f);</v>
+        <v>settings.Bounds = new Vector4(0.02125f, 0.443333f, 0.066667f, 0.25f);</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" s="3">
-        <v>101</v>
+        <v>17</v>
       </c>
       <c r="D11" s="3">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="E11" s="3">
         <v>200</v>
@@ -639,34 +643,49 @@
       </c>
       <c r="G11" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>exit.Bounds = new Vector4(0.131f, 0.63834f, 0.07905f, 0.2594f);</v>
+        <v>exit.Bounds = new Vector4(0.02125f, 0.533333f, 0.066667f, 0.25f);</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C12" s="3">
-        <v>340</v>
+        <v>17</v>
       </c>
       <c r="D12" s="3">
-        <v>162</v>
+        <v>375</v>
       </c>
       <c r="E12" s="3">
-        <v>410</v>
+        <v>200</v>
       </c>
       <c r="F12" s="3">
-        <v>323</v>
+        <v>40</v>
       </c>
       <c r="G12" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>news.Bounds = new Vector4(0.44099f, 0.32016f, 0.63834f, 0.53178f);</v>
+        <v>leaderboards.Bounds = new Vector4(0.02125f, 0.625f, 0.066667f, 0.25f);</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="3">
+        <v>274</v>
+      </c>
+      <c r="D13" s="3">
+        <v>159</v>
+      </c>
+      <c r="E13" s="3">
+        <v>511</v>
+      </c>
+      <c r="F13" s="3">
+        <v>428</v>
+      </c>
       <c r="G13" s="6" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>newsContainer.Bounds = new Vector4(0.3425f, 0.265f, 0.713333f, 0.63875f);</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">

--- a/widget_measurement_converter.xlsx
+++ b/widget_measurement_converter.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>item</t>
   </si>
@@ -30,9 +30,6 @@
     <t>title</t>
   </si>
   <si>
-    <t>settings</t>
-  </si>
-  <si>
     <t>exit</t>
   </si>
   <si>
@@ -54,16 +51,10 @@
     <t>accuracy</t>
   </si>
   <si>
-    <t>single_player</t>
-  </si>
-  <si>
-    <t>multiplayer</t>
-  </si>
-  <si>
-    <t>leaderboards</t>
-  </si>
-  <si>
-    <t>newsContainer</t>
+    <t>play</t>
+  </si>
+  <si>
+    <t xml:space="preserve">settings </t>
   </si>
 </sst>
 </file>
@@ -485,7 +476,7 @@
   <dimension ref="B2:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -499,7 +490,7 @@
   <sheetData>
     <row r="2" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="3">
         <v>800</v>
@@ -507,7 +498,7 @@
     </row>
     <row r="3" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="3">
         <v>600</v>
@@ -515,7 +506,7 @@
     </row>
     <row r="4" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="3">
         <v>6</v>
@@ -526,10 +517,10 @@
         <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>1</v>
@@ -538,7 +529,7 @@
         <v>2</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
@@ -564,7 +555,7 @@
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="3">
         <v>17</v>
@@ -580,12 +571,12 @@
       </c>
       <c r="G8" s="6" t="str">
         <f>IF(COUNTBLANK(B8:F8)&gt;0,"",CONCATENATE(B8,".Bounds = new Vector4(", ROUND(C8/$C$2,$C$4), "f, ", ROUND(D8/$C$3,$C$4), "f, ", ROUND(F8/$C$3,$C$4), "f, ", ROUND(E8/$C$2,$C$4), "f);"))</f>
-        <v>single_player.Bounds = new Vector4(0.02125f, 0.265f, 0.066667f, 0.25f);</v>
+        <v>play.Bounds = new Vector4(0.02125f, 0.265f, 0.066667f, 0.25f);</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="3">
         <v>17</v>
@@ -601,7 +592,7 @@
       </c>
       <c r="G9" s="6" t="str">
         <f t="shared" ref="G9:G30" si="0">IF(COUNTBLANK(B9:F9)&gt;0,"",CONCATENATE(B9,".Bounds = new Vector4(", ROUND(C9/$C$2,$C$4), "f, ", ROUND(D9/$C$3,$C$4), "f, ", ROUND(F9/$C$3,$C$4), "f, ", ROUND(E9/$C$2,$C$4), "f);"))</f>
-        <v>multiplayer.Bounds = new Vector4(0.02125f, 0.355f, 0.066667f, 0.25f);</v>
+        <v>settings .Bounds = new Vector4(0.02125f, 0.355f, 0.066667f, 0.25f);</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
@@ -622,13 +613,10 @@
       </c>
       <c r="G10" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>settings.Bounds = new Vector4(0.02125f, 0.443333f, 0.066667f, 0.25f);</v>
+        <v>exit.Bounds = new Vector4(0.02125f, 0.443333f, 0.066667f, 0.25f);</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
       <c r="C11" s="3">
         <v>17</v>
       </c>
@@ -643,13 +631,10 @@
       </c>
       <c r="G11" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>exit.Bounds = new Vector4(0.02125f, 0.533333f, 0.066667f, 0.25f);</v>
+        <v/>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
       <c r="C12" s="3">
         <v>17</v>
       </c>
@@ -664,13 +649,10 @@
       </c>
       <c r="G12" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>leaderboards.Bounds = new Vector4(0.02125f, 0.625f, 0.066667f, 0.25f);</v>
+        <v/>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
       <c r="C13" s="3">
         <v>274</v>
       </c>
@@ -685,7 +667,7 @@
       </c>
       <c r="G13" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>newsContainer.Bounds = new Vector4(0.3425f, 0.265f, 0.713333f, 0.63875f);</v>
+        <v/>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">

--- a/widget_measurement_converter.xlsx
+++ b/widget_measurement_converter.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>item</t>
   </si>
@@ -30,6 +30,9 @@
     <t>title</t>
   </si>
   <si>
+    <t>settings</t>
+  </si>
+  <si>
     <t>exit</t>
   </si>
   <si>
@@ -39,12 +42,6 @@
     <t>y</t>
   </si>
   <si>
-    <t>container width</t>
-  </si>
-  <si>
-    <t>container height</t>
-  </si>
-  <si>
     <t>out</t>
   </si>
   <si>
@@ -54,7 +51,22 @@
     <t>play</t>
   </si>
   <si>
-    <t xml:space="preserve">settings </t>
+    <t>header</t>
+  </si>
+  <si>
+    <t>healthContainer</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>cont. W</t>
+  </si>
+  <si>
+    <t>cont. H</t>
+  </si>
+  <si>
+    <t>scoreWidgets[i]</t>
   </si>
 </sst>
 </file>
@@ -473,313 +485,385 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G31"/>
+  <dimension ref="B2:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19.28515625" customWidth="1"/>
-    <col min="3" max="6" width="10.7109375" customWidth="1"/>
-    <col min="7" max="7" width="73.7109375" customWidth="1"/>
-    <col min="8" max="9" width="10.7109375" customWidth="1"/>
-    <col min="10" max="10" width="25.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="8" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="73.7109375" customWidth="1"/>
+    <col min="10" max="11" width="10.7109375" customWidth="1"/>
+    <col min="12" max="12" width="25.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="2" t="s">
+      <c r="G4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="2" t="s">
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>1280</v>
+      </c>
+      <c r="D5">
+        <v>720</v>
+      </c>
+      <c r="E5" s="3">
+        <v>266</v>
+      </c>
+      <c r="F5" s="3">
+        <v>36</v>
+      </c>
+      <c r="G5" s="3">
+        <v>768</v>
+      </c>
+      <c r="H5" s="3">
+        <v>126</v>
+      </c>
+      <c r="I5" s="5" t="str">
+        <f>IF(COUNTBLANK(B5:H5)&gt;0,"",CONCATENATE(B5,".Bounds = new Vector4(", ROUND(E5/C5,$E$2), "f, ", ROUND(F5/D5,$E$2), "f, ", ROUND(H5/D5,$E$2), "f, ", ROUND(G5/C5,$E$2), "f);"))</f>
+        <v>title.Bounds = new Vector4(0.207813f, 0.05f, 0.175f, 0.6f);</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>1280</v>
+      </c>
+      <c r="D6">
+        <v>720</v>
+      </c>
+      <c r="E6" s="3">
+        <v>266</v>
+      </c>
+      <c r="F6" s="3">
+        <v>260</v>
+      </c>
+      <c r="G6" s="3">
+        <v>200</v>
+      </c>
+      <c r="H6" s="3">
+        <v>40</v>
+      </c>
+      <c r="I6" s="6" t="str">
+        <f t="shared" ref="I6:I29" si="0">IF(COUNTBLANK(B6:H6)&gt;0,"",CONCATENATE(B6,".Bounds = new Vector4(", ROUND(E6/C6,$E$2), "f, ", ROUND(F6/D6,$E$2), "f, ", ROUND(H6/D6,$E$2), "f, ", ROUND(G6/C6,$E$2), "f);"))</f>
+        <v>settings.Bounds = new Vector4(0.207813f, 0.361111f, 0.055556f, 0.15625f);</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>1280</v>
+      </c>
+      <c r="D7">
+        <v>720</v>
+      </c>
+      <c r="E7" s="3">
+        <v>266</v>
+      </c>
+      <c r="F7" s="3">
+        <v>319</v>
+      </c>
+      <c r="G7" s="3">
+        <v>200</v>
+      </c>
+      <c r="H7" s="3">
+        <v>40</v>
+      </c>
+      <c r="I7" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>exit.Bounds = new Vector4(0.207813f, 0.443056f, 0.055556f, 0.15625f);</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>1280</v>
+      </c>
+      <c r="D8">
+        <v>720</v>
+      </c>
+      <c r="E8" s="3">
+        <v>488</v>
+      </c>
+      <c r="F8" s="3">
+        <v>200</v>
+      </c>
+      <c r="G8" s="3">
+        <v>546</v>
+      </c>
+      <c r="H8" s="3">
+        <v>498</v>
+      </c>
+      <c r="I8" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>image.Bounds = new Vector4(0.38125f, 0.277778f, 0.691667f, 0.426563f);</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
+      <c r="C9">
+        <v>1280</v>
+      </c>
+      <c r="D9">
+        <v>720</v>
+      </c>
+      <c r="E9" s="3">
+        <v>266</v>
+      </c>
+      <c r="F9" s="3">
+        <v>200</v>
+      </c>
+      <c r="G9" s="3">
+        <v>240</v>
+      </c>
+      <c r="H9" s="3">
+        <v>48</v>
+      </c>
+      <c r="I9" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>play.Bounds = new Vector4(0.207813f, 0.277778f, 0.066667f, 0.1875f);</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>1280</v>
+      </c>
+      <c r="D11">
+        <v>720</v>
+      </c>
+      <c r="E11" s="3">
         <v>0</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="F11" s="3">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1280</v>
+      </c>
+      <c r="H11" s="3">
+        <v>50</v>
+      </c>
+      <c r="I11" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>header.Bounds = new Vector4(0f, 0f, 0.069444f, 1f);</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>1280</v>
+      </c>
+      <c r="D12">
+        <v>50</v>
+      </c>
+      <c r="E12" s="3">
         <v>5</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="3">
-        <v>17</v>
-      </c>
-      <c r="D7" s="3">
-        <v>18</v>
-      </c>
-      <c r="E7" s="3">
-        <v>768</v>
-      </c>
-      <c r="F7" s="3">
-        <v>126</v>
-      </c>
-      <c r="G7" s="5" t="str">
-        <f>IF(COUNTBLANK(B7:F7)&gt;0,"",CONCATENATE(B7,".Bounds = new Vector4(", ROUND(C7/$C$2,$C$4), "f, ", ROUND(D7/$C$3,$C$4), "f, ", ROUND(F7/$C$3,$C$4), "f, ", ROUND(E7/$C$2,$C$4), "f);"))</f>
-        <v>title.Bounds = new Vector4(0.02125f, 0.03f, 0.21f, 0.96f);</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="3">
-        <v>17</v>
-      </c>
-      <c r="D8" s="3">
-        <v>159</v>
-      </c>
-      <c r="E8" s="3">
-        <v>200</v>
-      </c>
-      <c r="F8" s="3">
-        <v>40</v>
-      </c>
-      <c r="G8" s="6" t="str">
-        <f>IF(COUNTBLANK(B8:F8)&gt;0,"",CONCATENATE(B8,".Bounds = new Vector4(", ROUND(C8/$C$2,$C$4), "f, ", ROUND(D8/$C$3,$C$4), "f, ", ROUND(F8/$C$3,$C$4), "f, ", ROUND(E8/$C$2,$C$4), "f);"))</f>
-        <v>play.Bounds = new Vector4(0.02125f, 0.265f, 0.066667f, 0.25f);</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="3">
-        <v>17</v>
-      </c>
-      <c r="D9" s="3">
-        <v>213</v>
-      </c>
-      <c r="E9" s="3">
-        <v>200</v>
-      </c>
-      <c r="F9" s="3">
-        <v>40</v>
-      </c>
-      <c r="G9" s="6" t="str">
-        <f t="shared" ref="G9:G30" si="0">IF(COUNTBLANK(B9:F9)&gt;0,"",CONCATENATE(B9,".Bounds = new Vector4(", ROUND(C9/$C$2,$C$4), "f, ", ROUND(D9/$C$3,$C$4), "f, ", ROUND(F9/$C$3,$C$4), "f, ", ROUND(E9/$C$2,$C$4), "f);"))</f>
-        <v>settings .Bounds = new Vector4(0.02125f, 0.355f, 0.066667f, 0.25f);</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="3">
-        <v>17</v>
-      </c>
-      <c r="D10" s="3">
-        <v>266</v>
-      </c>
-      <c r="E10" s="3">
-        <v>200</v>
-      </c>
-      <c r="F10" s="3">
-        <v>40</v>
-      </c>
-      <c r="G10" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>exit.Bounds = new Vector4(0.02125f, 0.443333f, 0.066667f, 0.25f);</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C11" s="3">
-        <v>17</v>
-      </c>
-      <c r="D11" s="3">
-        <v>320</v>
-      </c>
-      <c r="E11" s="3">
-        <v>200</v>
-      </c>
-      <c r="F11" s="3">
-        <v>40</v>
-      </c>
-      <c r="G11" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C12" s="3">
-        <v>17</v>
-      </c>
-      <c r="D12" s="3">
-        <v>375</v>
-      </c>
-      <c r="E12" s="3">
-        <v>200</v>
-      </c>
       <c r="F12" s="3">
-        <v>40</v>
-      </c>
-      <c r="G12" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C13" s="3">
-        <v>274</v>
-      </c>
-      <c r="D13" s="3">
-        <v>159</v>
+        <v>8</v>
+      </c>
+      <c r="G12" s="3">
+        <v>256</v>
+      </c>
+      <c r="H12" s="3">
+        <v>36</v>
+      </c>
+      <c r="I12" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>healthContainer.Bounds = new Vector4(0.003906f, 0.16f, 0.72f, 0.2f);</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13">
+        <v>1280</v>
+      </c>
+      <c r="D13">
+        <v>50</v>
       </c>
       <c r="E13" s="3">
-        <v>511</v>
+        <v>1252</v>
       </c>
       <c r="F13" s="3">
-        <v>428</v>
-      </c>
-      <c r="G13" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="G14" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="G15" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="G16" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="G17" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="G18" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="G19" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="G20" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="G21" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="G22" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="G23" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="G24" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="G25" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="G26" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="G27" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="G28" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="G29" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="G30" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="7" t="str">
-        <f>IF(COUNTBLANK(B31:F31)&gt;0,"",CONCATENATE(B31,".Bounds = new Vector4(", ROUND(C31/$C$2,$C$4), "f, ", ROUND(D31/$C$3,$C$4), "f, ", ROUND(F31/$C$3,$C$4), "f, ", ROUND(E31/$C$2,$C$4), "f);"))</f>
+        <v>8</v>
+      </c>
+      <c r="G13" s="3">
+        <v>22</v>
+      </c>
+      <c r="H13" s="3">
+        <v>35</v>
+      </c>
+      <c r="I13" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>scoreWidgets[i].Bounds = new Vector4(0.978125f, 0.16f, 0.7f, 0.017188f);</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I14" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I15" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I16" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I17" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I18" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I19" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I20" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I21" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I22" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I23" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I24" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I25" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I26" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I27" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I28" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="7" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
